--- a/dataset/testing_code_set.xlsx
+++ b/dataset/testing_code_set.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E5C189-0025-474B-97EB-D4E5BEA8165E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9477C445-34A7-442D-9D23-62E2DF15C063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2340" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Positive Sample" sheetId="1" r:id="rId1"/>
@@ -6520,7 +6520,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -6587,7 +6587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7361,7 +7361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" customFormat="1" ht="224" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" customFormat="1" ht="168" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" customFormat="1" ht="238" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" customFormat="1" ht="252" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" customFormat="1" ht="238" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>13</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" customFormat="1" ht="392" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" customFormat="1" ht="238" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>13</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:4" customFormat="1" ht="308" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" customFormat="1" ht="238" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>13</v>
       </c>
@@ -8859,7 +8859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:4" customFormat="1" ht="322" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>13</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" customFormat="1" ht="336" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>415</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" ht="364" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>6</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" ht="182" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>12</v>
       </c>
@@ -9965,7 +9965,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -10240,7 +10240,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
         <f xml:space="preserve"> B2/SUM(B2,B3)</f>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2">
         <f xml:space="preserve"> B2/SUM(B2,B5)</f>
